--- a/RustOneWayKutner.xlsx
+++ b/RustOneWayKutner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucomplutense-my.sharepoint.com/personal/nimartin_ucm_es/Documents/UCM-Curso2024-2025/EstadisticaAplicada/datosKutner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5D6D69-93E7-4C8C-B8ED-B0F86B0BA044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0B5D6D69-93E7-4C8C-B8ED-B0F86B0BA044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C97F63-14A2-4C60-AB29-B4DE7A4F14C6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B5194D-B5A3-4E19-88F9-D6EE9FBFA413}"/>
   </bookViews>
@@ -402,14 +402,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D274A011-A99A-401C-8132-A81185C4C536}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>43.9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>46.7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>43.8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>44.2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>47.7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>43.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>38.9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>43.6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>89.8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>87.1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>92.7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>90.6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>87.7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>92.4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>86.1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>88.1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>90.8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>89.1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>69.3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>68.5</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>65.2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>63.8</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>69.2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>45.2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>40.5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>43.2</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>40.9</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>